--- a/natmiOut/OldD2/LR-pairs_lrc2p/Thbs2-Itga4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Thbs2-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.988169674223</v>
+        <v>2.2625225</v>
       </c>
       <c r="H2">
-        <v>1.988169674223</v>
+        <v>4.525045</v>
       </c>
       <c r="I2">
-        <v>0.0229362734618602</v>
+        <v>0.02393286306832829</v>
       </c>
       <c r="J2">
-        <v>0.0229362734618602</v>
+        <v>0.01659121259875097</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.294352522144792</v>
+        <v>0.317263</v>
       </c>
       <c r="N2">
-        <v>0.294352522144792</v>
+        <v>0.634526</v>
       </c>
       <c r="O2">
-        <v>0.002545680356091186</v>
+        <v>0.002587741009497455</v>
       </c>
       <c r="P2">
-        <v>0.002545680356091186</v>
+        <v>0.001733186563985812</v>
       </c>
       <c r="Q2">
-        <v>0.5852227580593296</v>
+        <v>0.7178146759175001</v>
       </c>
       <c r="R2">
-        <v>0.5852227580593296</v>
+        <v>2.871258703670001</v>
       </c>
       <c r="S2">
-        <v>5.838842079379308E-05</v>
+        <v>6.193205123660021E-05</v>
       </c>
       <c r="T2">
-        <v>5.838842079379308E-05</v>
+        <v>2.875566675638731E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.988169674223</v>
+        <v>2.2625225</v>
       </c>
       <c r="H3">
-        <v>1.988169674223</v>
+        <v>4.525045</v>
       </c>
       <c r="I3">
-        <v>0.0229362734618602</v>
+        <v>0.02393286306832829</v>
       </c>
       <c r="J3">
-        <v>0.0229362734618602</v>
+        <v>0.01659121259875097</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>42.976043056057</v>
+        <v>0.02842633333333333</v>
       </c>
       <c r="N3">
-        <v>42.976043056057</v>
+        <v>0.08527899999999999</v>
       </c>
       <c r="O3">
-        <v>0.3716743032917443</v>
+        <v>0.0002318580752130288</v>
       </c>
       <c r="P3">
-        <v>0.3716743032917443</v>
+        <v>0.0002329367385893503</v>
       </c>
       <c r="Q3">
-        <v>85.44366552215446</v>
+        <v>0.06431521875916667</v>
       </c>
       <c r="R3">
-        <v>85.44366552215446</v>
+        <v>0.385891312555</v>
       </c>
       <c r="S3">
-        <v>0.008524823459045813</v>
+        <v>5.54902756535958E-06</v>
       </c>
       <c r="T3">
-        <v>0.008524823459045813</v>
+        <v>3.86470295199559E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.988169674223</v>
+        <v>2.2625225</v>
       </c>
       <c r="H4">
-        <v>1.988169674223</v>
+        <v>4.525045</v>
       </c>
       <c r="I4">
-        <v>0.0229362734618602</v>
+        <v>0.02393286306832829</v>
       </c>
       <c r="J4">
-        <v>0.0229362734618602</v>
+        <v>0.01659121259875097</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>70.4144540386251</v>
+        <v>49.39115366666666</v>
       </c>
       <c r="N4">
-        <v>70.4144540386251</v>
+        <v>148.173461</v>
       </c>
       <c r="O4">
-        <v>0.6089728435988707</v>
+        <v>0.4028566641859401</v>
       </c>
       <c r="P4">
-        <v>0.6089728435988707</v>
+        <v>0.4047308569616938</v>
       </c>
       <c r="Q4">
-        <v>139.9958821465636</v>
+        <v>111.7485964717908</v>
       </c>
       <c r="R4">
-        <v>139.9958821465636</v>
+        <v>670.491578830745</v>
       </c>
       <c r="S4">
-        <v>0.01396756767163032</v>
+        <v>0.009641513380125618</v>
       </c>
       <c r="T4">
-        <v>0.01396756767163032</v>
+        <v>0.00671497569312613</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,55 +720,55 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.988169674223</v>
+        <v>2.2625225</v>
       </c>
       <c r="H5">
-        <v>1.988169674223</v>
+        <v>4.525045</v>
       </c>
       <c r="I5">
-        <v>0.0229362734618602</v>
+        <v>0.02393286306832829</v>
       </c>
       <c r="J5">
-        <v>0.0229362734618602</v>
+        <v>0.01659121259875097</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.570626390767208</v>
+        <v>70.86573300000001</v>
       </c>
       <c r="N5">
-        <v>0.570626390767208</v>
+        <v>212.597199</v>
       </c>
       <c r="O5">
-        <v>0.004935009162003186</v>
+        <v>0.5780130789036135</v>
       </c>
       <c r="P5">
-        <v>0.004935009162003186</v>
+        <v>0.5807021443531359</v>
       </c>
       <c r="Q5">
-        <v>1.134502085434686</v>
+        <v>160.3353153914925</v>
       </c>
       <c r="R5">
-        <v>1.134502085434686</v>
+        <v>962.0118923489551</v>
       </c>
       <c r="S5">
-        <v>0.0001131907196764906</v>
+        <v>0.01383350786910302</v>
       </c>
       <c r="T5">
-        <v>0.0001131907196764906</v>
+        <v>0.009634552733513454</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,60 +782,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.988169674223</v>
+        <v>2.2625225</v>
       </c>
       <c r="H6">
-        <v>1.988169674223</v>
+        <v>4.525045</v>
       </c>
       <c r="I6">
-        <v>0.0229362734618602</v>
+        <v>0.02393286306832829</v>
       </c>
       <c r="J6">
-        <v>0.0229362734618602</v>
+        <v>0.01659121259875097</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.3727573016189</v>
+        <v>0.6137786666666667</v>
       </c>
       <c r="N6">
-        <v>1.3727573016189</v>
+        <v>1.841336</v>
       </c>
       <c r="O6">
-        <v>0.01187216359129066</v>
+        <v>0.005006257352694774</v>
       </c>
       <c r="P6">
-        <v>0.01187216359129066</v>
+        <v>0.005029547749002215</v>
       </c>
       <c r="Q6">
-        <v>2.729274437146893</v>
+        <v>1.388688043353334</v>
       </c>
       <c r="R6">
-        <v>2.729274437146893</v>
+        <v>8.332128260120001</v>
       </c>
       <c r="S6">
-        <v>0.0002723031907137827</v>
+        <v>0.0001198140717068557</v>
       </c>
       <c r="T6">
-        <v>0.0002723031907137827</v>
+        <v>8.344629597926513E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -844,55 +844,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>75.3773801226547</v>
+        <v>2.2625225</v>
       </c>
       <c r="H7">
-        <v>75.3773801226547</v>
+        <v>4.525045</v>
       </c>
       <c r="I7">
-        <v>0.8695818197747425</v>
+        <v>0.02393286306832829</v>
       </c>
       <c r="J7">
-        <v>0.8695818197747425</v>
+        <v>0.01659121259875097</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.294352522144792</v>
+        <v>1.3859455</v>
       </c>
       <c r="N7">
-        <v>0.294352522144792</v>
+        <v>2.771891</v>
       </c>
       <c r="O7">
-        <v>0.002545680356091186</v>
+        <v>0.01130440047304115</v>
       </c>
       <c r="P7">
-        <v>0.002545680356091186</v>
+        <v>0.007571327633592945</v>
       </c>
       <c r="Q7">
-        <v>22.18752195177012</v>
+        <v>3.135732877523751</v>
       </c>
       <c r="R7">
-        <v>22.18752195177012</v>
+        <v>12.542931510095</v>
       </c>
       <c r="S7">
-        <v>0.002213677356614588</v>
+        <v>0.0002705466685908395</v>
       </c>
       <c r="T7">
-        <v>0.002213677356614588</v>
+        <v>0.0001256175064237386</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>75.3773801226547</v>
+        <v>81.63032533333333</v>
       </c>
       <c r="H8">
-        <v>75.3773801226547</v>
+        <v>244.890976</v>
       </c>
       <c r="I8">
-        <v>0.8695818197747425</v>
+        <v>0.8634819757265425</v>
       </c>
       <c r="J8">
-        <v>0.8695818197747425</v>
+        <v>0.8979000753211561</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>42.976043056057</v>
+        <v>0.317263</v>
       </c>
       <c r="N8">
-        <v>42.976043056057</v>
+        <v>0.634526</v>
       </c>
       <c r="O8">
-        <v>0.3716743032917443</v>
+        <v>0.002587741009497455</v>
       </c>
       <c r="P8">
-        <v>0.3716743032917443</v>
+        <v>0.001733186563985812</v>
       </c>
       <c r="Q8">
-        <v>3239.421533603983</v>
+        <v>25.89828190622934</v>
       </c>
       <c r="R8">
-        <v>3239.421533603983</v>
+        <v>155.389691437376</v>
       </c>
       <c r="S8">
-        <v>0.3232012170199446</v>
+        <v>0.00223446771954946</v>
       </c>
       <c r="T8">
-        <v>0.3232012170199446</v>
+        <v>0.001556228346348477</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>75.3773801226547</v>
+        <v>81.63032533333333</v>
       </c>
       <c r="H9">
-        <v>75.3773801226547</v>
+        <v>244.890976</v>
       </c>
       <c r="I9">
-        <v>0.8695818197747425</v>
+        <v>0.8634819757265425</v>
       </c>
       <c r="J9">
-        <v>0.8695818197747425</v>
+        <v>0.8979000753211561</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>70.4144540386251</v>
+        <v>0.02842633333333333</v>
       </c>
       <c r="N9">
-        <v>70.4144540386251</v>
+        <v>0.08527899999999999</v>
       </c>
       <c r="O9">
-        <v>0.6089728435988707</v>
+        <v>0.0002318580752130288</v>
       </c>
       <c r="P9">
-        <v>0.6089728435988707</v>
+        <v>0.0002329367385893503</v>
       </c>
       <c r="Q9">
-        <v>5307.657068198642</v>
+        <v>2.320450838033778</v>
       </c>
       <c r="R9">
-        <v>5307.657068198642</v>
+        <v>20.884057542304</v>
       </c>
       <c r="S9">
-        <v>0.5295517135301057</v>
+        <v>0.0002002052688730994</v>
       </c>
       <c r="T9">
-        <v>0.5295517135301057</v>
+        <v>0.0002091539151244421</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>75.3773801226547</v>
+        <v>81.63032533333333</v>
       </c>
       <c r="H10">
-        <v>75.3773801226547</v>
+        <v>244.890976</v>
       </c>
       <c r="I10">
-        <v>0.8695818197747425</v>
+        <v>0.8634819757265425</v>
       </c>
       <c r="J10">
-        <v>0.8695818197747425</v>
+        <v>0.8979000753211561</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.570626390767208</v>
+        <v>49.39115366666666</v>
       </c>
       <c r="N10">
-        <v>0.570626390767208</v>
+        <v>148.173461</v>
       </c>
       <c r="O10">
-        <v>0.004935009162003186</v>
+        <v>0.4028566641859401</v>
       </c>
       <c r="P10">
-        <v>0.004935009162003186</v>
+        <v>0.4047308569616938</v>
       </c>
       <c r="Q10">
-        <v>43.01232236487834</v>
+        <v>4031.815942398659</v>
       </c>
       <c r="R10">
-        <v>43.01232236487834</v>
+        <v>36286.34348158793</v>
       </c>
       <c r="S10">
-        <v>0.004291394247699757</v>
+        <v>0.3478594683258798</v>
       </c>
       <c r="T10">
-        <v>0.004291394247699757</v>
+        <v>0.3634078669507009</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,60 +1092,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>75.3773801226547</v>
+        <v>81.63032533333333</v>
       </c>
       <c r="H11">
-        <v>75.3773801226547</v>
+        <v>244.890976</v>
       </c>
       <c r="I11">
-        <v>0.8695818197747425</v>
+        <v>0.8634819757265425</v>
       </c>
       <c r="J11">
-        <v>0.8695818197747425</v>
+        <v>0.8979000753211561</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.3727573016189</v>
+        <v>70.86573300000001</v>
       </c>
       <c r="N11">
-        <v>1.3727573016189</v>
+        <v>212.597199</v>
       </c>
       <c r="O11">
-        <v>0.01187216359129066</v>
+        <v>0.5780130789036135</v>
       </c>
       <c r="P11">
-        <v>0.01187216359129066</v>
+        <v>0.5807021443531359</v>
       </c>
       <c r="Q11">
-        <v>103.4748489402776</v>
+        <v>5784.792839775137</v>
       </c>
       <c r="R11">
-        <v>103.4748489402776</v>
+        <v>52063.13555797622</v>
       </c>
       <c r="S11">
-        <v>0.01032381762037797</v>
+        <v>0.4991038753674741</v>
       </c>
       <c r="T11">
-        <v>0.01032381762037797</v>
+        <v>0.5214124991538376</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1154,60 +1154,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.110779653265204</v>
+        <v>81.63032533333333</v>
       </c>
       <c r="H12">
-        <v>0.110779653265204</v>
+        <v>244.890976</v>
       </c>
       <c r="I12">
-        <v>0.001277995763763863</v>
+        <v>0.8634819757265425</v>
       </c>
       <c r="J12">
-        <v>0.001277995763763863</v>
+        <v>0.8979000753211561</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.294352522144792</v>
+        <v>0.6137786666666667</v>
       </c>
       <c r="N12">
-        <v>0.294352522144792</v>
+        <v>1.841336</v>
       </c>
       <c r="O12">
-        <v>0.002545680356091186</v>
+        <v>0.005006257352694774</v>
       </c>
       <c r="P12">
-        <v>0.002545680356091186</v>
+        <v>0.005029547749002215</v>
       </c>
       <c r="Q12">
-        <v>0.03260827034093834</v>
+        <v>50.10295224265955</v>
       </c>
       <c r="R12">
-        <v>0.03260827034093834</v>
+        <v>450.926570183936</v>
       </c>
       <c r="S12">
-        <v>3.253368710981417E-06</v>
+        <v>0.004322812989900413</v>
       </c>
       <c r="T12">
-        <v>3.253368710981417E-06</v>
+        <v>0.00451603130266044</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1216,55 +1216,55 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.110779653265204</v>
+        <v>81.63032533333333</v>
       </c>
       <c r="H13">
-        <v>0.110779653265204</v>
+        <v>244.890976</v>
       </c>
       <c r="I13">
-        <v>0.001277995763763863</v>
+        <v>0.8634819757265425</v>
       </c>
       <c r="J13">
-        <v>0.001277995763763863</v>
+        <v>0.8979000753211561</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>42.976043056057</v>
+        <v>1.3859455</v>
       </c>
       <c r="N13">
-        <v>42.976043056057</v>
+        <v>2.771891</v>
       </c>
       <c r="O13">
-        <v>0.3716743032917443</v>
+        <v>0.01130440047304115</v>
       </c>
       <c r="P13">
-        <v>0.3716743032917443</v>
+        <v>0.007571327633592945</v>
       </c>
       <c r="Q13">
-        <v>4.760871148460473</v>
+        <v>113.1351820592693</v>
       </c>
       <c r="R13">
-        <v>4.760871148460473</v>
+        <v>678.811092355616</v>
       </c>
       <c r="S13">
-        <v>0.0004749981851067344</v>
+        <v>0.009761146054865636</v>
       </c>
       <c r="T13">
-        <v>0.0004749981851067344</v>
+        <v>0.006798295652484256</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.110779653265204</v>
+        <v>0.1155876666666667</v>
       </c>
       <c r="H14">
-        <v>0.110779653265204</v>
+        <v>0.346763</v>
       </c>
       <c r="I14">
-        <v>0.001277995763763863</v>
+        <v>0.001222681232438973</v>
       </c>
       <c r="J14">
-        <v>0.001277995763763863</v>
+        <v>0.001271416892954806</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>70.4144540386251</v>
+        <v>0.317263</v>
       </c>
       <c r="N14">
-        <v>70.4144540386251</v>
+        <v>0.634526</v>
       </c>
       <c r="O14">
-        <v>0.6089728435988707</v>
+        <v>0.002587741009497455</v>
       </c>
       <c r="P14">
-        <v>0.6089728435988707</v>
+        <v>0.001733186563985812</v>
       </c>
       <c r="Q14">
-        <v>7.800488803257532</v>
+        <v>0.03667168988966667</v>
       </c>
       <c r="R14">
-        <v>7.800488803257532</v>
+        <v>0.220030139338</v>
       </c>
       <c r="S14">
-        <v>0.0007782647143665902</v>
+        <v>3.163982366725221E-06</v>
       </c>
       <c r="T14">
-        <v>0.0007782647143665902</v>
+        <v>2.203602676093858E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.110779653265204</v>
+        <v>0.1155876666666667</v>
       </c>
       <c r="H15">
-        <v>0.110779653265204</v>
+        <v>0.346763</v>
       </c>
       <c r="I15">
-        <v>0.001277995763763863</v>
+        <v>0.001222681232438973</v>
       </c>
       <c r="J15">
-        <v>0.001277995763763863</v>
+        <v>0.001271416892954806</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.570626390767208</v>
+        <v>0.02842633333333333</v>
       </c>
       <c r="N15">
-        <v>0.570626390767208</v>
+        <v>0.08527899999999999</v>
       </c>
       <c r="O15">
-        <v>0.004935009162003186</v>
+        <v>0.0002318580752130288</v>
       </c>
       <c r="P15">
-        <v>0.004935009162003186</v>
+        <v>0.0002329367385893503</v>
       </c>
       <c r="Q15">
-        <v>0.06321379371316611</v>
+        <v>0.003285733541888888</v>
       </c>
       <c r="R15">
-        <v>0.06321379371316611</v>
+        <v>0.029571601877</v>
       </c>
       <c r="S15">
-        <v>6.306920803175922E-06</v>
+        <v>2.834885171523942E-07</v>
       </c>
       <c r="T15">
-        <v>6.306920803175922E-06</v>
+        <v>2.961597044322976E-07</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,60 +1402,60 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.110779653265204</v>
+        <v>0.1155876666666667</v>
       </c>
       <c r="H16">
-        <v>0.110779653265204</v>
+        <v>0.346763</v>
       </c>
       <c r="I16">
-        <v>0.001277995763763863</v>
+        <v>0.001222681232438973</v>
       </c>
       <c r="J16">
-        <v>0.001277995763763863</v>
+        <v>0.001271416892954806</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.3727573016189</v>
+        <v>49.39115366666666</v>
       </c>
       <c r="N16">
-        <v>1.3727573016189</v>
+        <v>148.173461</v>
       </c>
       <c r="O16">
-        <v>0.01187216359129066</v>
+        <v>0.4028566641859401</v>
       </c>
       <c r="P16">
-        <v>0.01187216359129066</v>
+        <v>0.4047308569616938</v>
       </c>
       <c r="Q16">
-        <v>0.1520735778906188</v>
+        <v>5.709008206304777</v>
       </c>
       <c r="R16">
-        <v>0.1520735778906188</v>
+        <v>51.38107385674299</v>
       </c>
       <c r="S16">
-        <v>1.517257477638103E-05</v>
+        <v>0.0004925652826631189</v>
       </c>
       <c r="T16">
-        <v>1.517257477638103E-05</v>
+        <v>0.0005145816486411728</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -1464,122 +1464,122 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.64364178800039</v>
+        <v>0.1155876666666667</v>
       </c>
       <c r="H17">
-        <v>1.64364178800039</v>
+        <v>0.346763</v>
       </c>
       <c r="I17">
-        <v>0.0189616701289094</v>
+        <v>0.001222681232438973</v>
       </c>
       <c r="J17">
-        <v>0.0189616701289094</v>
+        <v>0.001271416892954806</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.294352522144792</v>
+        <v>70.86573300000001</v>
       </c>
       <c r="N17">
-        <v>0.294352522144792</v>
+        <v>212.597199</v>
       </c>
       <c r="O17">
-        <v>0.002545680356091186</v>
+        <v>0.5780130789036135</v>
       </c>
       <c r="P17">
-        <v>0.002545680356091186</v>
+        <v>0.5807021443531359</v>
       </c>
       <c r="Q17">
-        <v>0.4838101058004903</v>
+        <v>8.191204724093</v>
       </c>
       <c r="R17">
-        <v>0.4838101058004903</v>
+        <v>73.72084251683701</v>
       </c>
       <c r="S17">
-        <v>4.827035116584567E-05</v>
+        <v>0.0007067257436797157</v>
       </c>
       <c r="T17">
-        <v>4.827035116584567E-05</v>
+        <v>0.0007383145161056575</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.64364178800039</v>
+        <v>0.1155876666666667</v>
       </c>
       <c r="H18">
-        <v>1.64364178800039</v>
+        <v>0.346763</v>
       </c>
       <c r="I18">
-        <v>0.0189616701289094</v>
+        <v>0.001222681232438973</v>
       </c>
       <c r="J18">
-        <v>0.0189616701289094</v>
+        <v>0.001271416892954806</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>42.976043056057</v>
+        <v>0.6137786666666667</v>
       </c>
       <c r="N18">
-        <v>42.976043056057</v>
+        <v>1.841336</v>
       </c>
       <c r="O18">
-        <v>0.3716743032917443</v>
+        <v>0.005006257352694774</v>
       </c>
       <c r="P18">
-        <v>0.3716743032917443</v>
+        <v>0.005029547749002215</v>
       </c>
       <c r="Q18">
-        <v>70.63722024983927</v>
+        <v>0.07094524392977777</v>
       </c>
       <c r="R18">
-        <v>70.63722024983927</v>
+        <v>0.638507195368</v>
       </c>
       <c r="S18">
-        <v>0.00704756553441028</v>
+        <v>6.121056909899519E-06</v>
       </c>
       <c r="T18">
-        <v>0.00704756553441028</v>
+        <v>6.394651972004236E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1588,55 +1588,55 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.64364178800039</v>
+        <v>0.1155876666666667</v>
       </c>
       <c r="H19">
-        <v>1.64364178800039</v>
+        <v>0.346763</v>
       </c>
       <c r="I19">
-        <v>0.0189616701289094</v>
+        <v>0.001222681232438973</v>
       </c>
       <c r="J19">
-        <v>0.0189616701289094</v>
+        <v>0.001271416892954806</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>70.4144540386251</v>
+        <v>1.3859455</v>
       </c>
       <c r="N19">
-        <v>70.4144540386251</v>
+        <v>2.771891</v>
       </c>
       <c r="O19">
-        <v>0.6089728435988707</v>
+        <v>0.01130440047304115</v>
       </c>
       <c r="P19">
-        <v>0.6089728435988707</v>
+        <v>0.007571327633592945</v>
       </c>
       <c r="Q19">
-        <v>115.736139137117</v>
+        <v>0.1601982064721666</v>
       </c>
       <c r="R19">
-        <v>115.736139137117</v>
+        <v>0.961189238833</v>
       </c>
       <c r="S19">
-        <v>0.01154714217778572</v>
+        <v>1.382167830236167E-05</v>
       </c>
       <c r="T19">
-        <v>0.01154714217778572</v>
+        <v>9.626313855445608E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.64364178800039</v>
+        <v>1.919088333333333</v>
       </c>
       <c r="H20">
-        <v>1.64364178800039</v>
+        <v>5.757264999999999</v>
       </c>
       <c r="I20">
-        <v>0.0189616701289094</v>
+        <v>0.02030003162297525</v>
       </c>
       <c r="J20">
-        <v>0.0189616701289094</v>
+        <v>0.02110918401968333</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.570626390767208</v>
+        <v>0.317263</v>
       </c>
       <c r="N20">
-        <v>0.570626390767208</v>
+        <v>0.634526</v>
       </c>
       <c r="O20">
-        <v>0.004935009162003186</v>
+        <v>0.002587741009497455</v>
       </c>
       <c r="P20">
-        <v>0.004935009162003186</v>
+        <v>0.001733186563985812</v>
       </c>
       <c r="Q20">
-        <v>0.937905381200823</v>
+        <v>0.6088557218983333</v>
       </c>
       <c r="R20">
-        <v>0.937905381200823</v>
+        <v>3.65313433139</v>
       </c>
       <c r="S20">
-        <v>9.357601581305001E-05</v>
+        <v>5.253122432486823E-05</v>
       </c>
       <c r="T20">
-        <v>9.357601581305001E-05</v>
+        <v>3.658615411961918E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,60 +1712,60 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.64364178800039</v>
+        <v>1.919088333333333</v>
       </c>
       <c r="H21">
-        <v>1.64364178800039</v>
+        <v>5.757264999999999</v>
       </c>
       <c r="I21">
-        <v>0.0189616701289094</v>
+        <v>0.02030003162297525</v>
       </c>
       <c r="J21">
-        <v>0.0189616701289094</v>
+        <v>0.02110918401968333</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>1.3727573016189</v>
+        <v>0.02842633333333333</v>
       </c>
       <c r="N21">
-        <v>1.3727573016189</v>
+        <v>0.08527899999999999</v>
       </c>
       <c r="O21">
-        <v>0.01187216359129066</v>
+        <v>0.0002318580752130288</v>
       </c>
       <c r="P21">
-        <v>0.01187216359129066</v>
+        <v>0.0002329367385893503</v>
       </c>
       <c r="Q21">
-        <v>2.256321265723479</v>
+        <v>0.05455264465944443</v>
       </c>
       <c r="R21">
-        <v>2.256321265723479</v>
+        <v>0.4909738019349999</v>
       </c>
       <c r="S21">
-        <v>0.0002251160497345018</v>
+        <v>4.706726258866657E-06</v>
       </c>
       <c r="T21">
-        <v>0.0002251160497345018</v>
+        <v>4.917104479827467E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
@@ -1774,60 +1774,60 @@
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>7.56236089959683</v>
+        <v>1.919088333333333</v>
       </c>
       <c r="H22">
-        <v>7.56236089959683</v>
+        <v>5.757264999999999</v>
       </c>
       <c r="I22">
-        <v>0.08724224087072407</v>
+        <v>0.02030003162297525</v>
       </c>
       <c r="J22">
-        <v>0.08724224087072407</v>
+        <v>0.02110918401968333</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.294352522144792</v>
+        <v>49.39115366666666</v>
       </c>
       <c r="N22">
-        <v>0.294352522144792</v>
+        <v>148.173461</v>
       </c>
       <c r="O22">
-        <v>0.002545680356091186</v>
+        <v>0.4028566641859401</v>
       </c>
       <c r="P22">
-        <v>0.002545680356091186</v>
+        <v>0.4047308569616938</v>
       </c>
       <c r="Q22">
-        <v>2.226000004165485</v>
+        <v>94.78598677157386</v>
       </c>
       <c r="R22">
-        <v>2.226000004165485</v>
+        <v>853.0738809441648</v>
       </c>
       <c r="S22">
-        <v>0.0002220908588059779</v>
+        <v>0.008178003022500904</v>
       </c>
       <c r="T22">
-        <v>0.0002220908588059779</v>
+        <v>0.008543538138048527</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
@@ -1836,60 +1836,60 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>7.56236089959683</v>
+        <v>1.919088333333333</v>
       </c>
       <c r="H23">
-        <v>7.56236089959683</v>
+        <v>5.757264999999999</v>
       </c>
       <c r="I23">
-        <v>0.08724224087072407</v>
+        <v>0.02030003162297525</v>
       </c>
       <c r="J23">
-        <v>0.08724224087072407</v>
+        <v>0.02110918401968333</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>42.976043056057</v>
+        <v>70.86573300000001</v>
       </c>
       <c r="N23">
-        <v>42.976043056057</v>
+        <v>212.597199</v>
       </c>
       <c r="O23">
-        <v>0.3716743032917443</v>
+        <v>0.5780130789036135</v>
       </c>
       <c r="P23">
-        <v>0.3716743032917443</v>
+        <v>0.5807021443531359</v>
       </c>
       <c r="Q23">
-        <v>325.0003476265153</v>
+        <v>135.997601433415</v>
       </c>
       <c r="R23">
-        <v>325.0003476265153</v>
+        <v>1223.978412900735</v>
       </c>
       <c r="S23">
-        <v>0.03242569909323691</v>
+        <v>0.01173368378023664</v>
       </c>
       <c r="T23">
-        <v>0.03242569909323691</v>
+        <v>0.01225814842577506</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -1898,117 +1898,117 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>7.56236089959683</v>
+        <v>1.919088333333333</v>
       </c>
       <c r="H24">
-        <v>7.56236089959683</v>
+        <v>5.757264999999999</v>
       </c>
       <c r="I24">
-        <v>0.08724224087072407</v>
+        <v>0.02030003162297525</v>
       </c>
       <c r="J24">
-        <v>0.08724224087072407</v>
+        <v>0.02110918401968333</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>70.4144540386251</v>
+        <v>0.6137786666666667</v>
       </c>
       <c r="N24">
-        <v>70.4144540386251</v>
+        <v>1.841336</v>
       </c>
       <c r="O24">
-        <v>0.6089728435988707</v>
+        <v>0.005006257352694774</v>
       </c>
       <c r="P24">
-        <v>0.6089728435988707</v>
+        <v>0.005029547749002215</v>
       </c>
       <c r="Q24">
-        <v>532.4995139881565</v>
+        <v>1.177895478448889</v>
       </c>
       <c r="R24">
-        <v>532.4995139881565</v>
+        <v>10.60105930604</v>
       </c>
       <c r="S24">
-        <v>0.05312815550498246</v>
+        <v>0.0001016271825724563</v>
       </c>
       <c r="T24">
-        <v>0.05312815550498246</v>
+        <v>0.0001061696489694718</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>7.56236089959683</v>
+        <v>1.919088333333333</v>
       </c>
       <c r="H25">
-        <v>7.56236089959683</v>
+        <v>5.757264999999999</v>
       </c>
       <c r="I25">
-        <v>0.08724224087072407</v>
+        <v>0.02030003162297525</v>
       </c>
       <c r="J25">
-        <v>0.08724224087072407</v>
+        <v>0.02110918401968333</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.570626390767208</v>
+        <v>1.3859455</v>
       </c>
       <c r="N25">
-        <v>0.570626390767208</v>
+        <v>2.771891</v>
       </c>
       <c r="O25">
-        <v>0.004935009162003186</v>
+        <v>0.01130440047304115</v>
       </c>
       <c r="P25">
-        <v>0.004935009162003186</v>
+        <v>0.007571327633592945</v>
       </c>
       <c r="Q25">
-        <v>4.315282705815996</v>
+        <v>2.659751839685833</v>
       </c>
       <c r="R25">
-        <v>4.315282705815996</v>
+        <v>15.958511038115</v>
       </c>
       <c r="S25">
-        <v>0.0004305412580107121</v>
+        <v>0.0002294796870815117</v>
       </c>
       <c r="T25">
-        <v>0.0004305412580107121</v>
+        <v>0.000159824548290827</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,55 +2022,365 @@
         <v>26</v>
       </c>
       <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>8.608700000000001</v>
+      </c>
+      <c r="H26">
+        <v>17.2174</v>
+      </c>
+      <c r="I26">
+        <v>0.09106244834971487</v>
+      </c>
+      <c r="J26">
+        <v>0.06312811116745468</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.317263</v>
+      </c>
+      <c r="N26">
+        <v>0.634526</v>
+      </c>
+      <c r="O26">
+        <v>0.002587741009497455</v>
+      </c>
+      <c r="P26">
+        <v>0.001733186563985812</v>
+      </c>
+      <c r="Q26">
+        <v>2.7312219881</v>
+      </c>
+      <c r="R26">
+        <v>10.9248879524</v>
+      </c>
+      <c r="S26">
+        <v>0.000235646032019801</v>
+      </c>
+      <c r="T26">
+        <v>0.0001094127940852352</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>24</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>7.56236089959683</v>
-      </c>
-      <c r="H26">
-        <v>7.56236089959683</v>
-      </c>
-      <c r="I26">
-        <v>0.08724224087072407</v>
-      </c>
-      <c r="J26">
-        <v>0.08724224087072407</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>1.3727573016189</v>
-      </c>
-      <c r="N26">
-        <v>1.3727573016189</v>
-      </c>
-      <c r="O26">
-        <v>0.01187216359129066</v>
-      </c>
-      <c r="P26">
-        <v>0.01187216359129066</v>
-      </c>
-      <c r="Q26">
-        <v>10.38128614239882</v>
-      </c>
-      <c r="R26">
-        <v>10.38128614239882</v>
-      </c>
-      <c r="S26">
-        <v>0.00103575415568802</v>
-      </c>
-      <c r="T26">
-        <v>0.00103575415568802</v>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>8.608700000000001</v>
+      </c>
+      <c r="H27">
+        <v>17.2174</v>
+      </c>
+      <c r="I27">
+        <v>0.09106244834971487</v>
+      </c>
+      <c r="J27">
+        <v>0.06312811116745468</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.02842633333333333</v>
+      </c>
+      <c r="N27">
+        <v>0.08527899999999999</v>
+      </c>
+      <c r="O27">
+        <v>0.0002318580752130288</v>
+      </c>
+      <c r="P27">
+        <v>0.0002329367385893503</v>
+      </c>
+      <c r="Q27">
+        <v>0.2447137757666667</v>
+      </c>
+      <c r="R27">
+        <v>1.4682826546</v>
+      </c>
+      <c r="S27">
+        <v>2.111356399855074E-05</v>
+      </c>
+      <c r="T27">
+        <v>1.470485632865283E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>8.608700000000001</v>
+      </c>
+      <c r="H28">
+        <v>17.2174</v>
+      </c>
+      <c r="I28">
+        <v>0.09106244834971487</v>
+      </c>
+      <c r="J28">
+        <v>0.06312811116745468</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>49.39115366666666</v>
+      </c>
+      <c r="N28">
+        <v>148.173461</v>
+      </c>
+      <c r="O28">
+        <v>0.4028566641859401</v>
+      </c>
+      <c r="P28">
+        <v>0.4047308569616938</v>
+      </c>
+      <c r="Q28">
+        <v>425.1936245702333</v>
+      </c>
+      <c r="R28">
+        <v>2551.1617474214</v>
+      </c>
+      <c r="S28">
+        <v>0.0366851141747706</v>
+      </c>
+      <c r="T28">
+        <v>0.025549894531177</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>8.608700000000001</v>
+      </c>
+      <c r="H29">
+        <v>17.2174</v>
+      </c>
+      <c r="I29">
+        <v>0.09106244834971487</v>
+      </c>
+      <c r="J29">
+        <v>0.06312811116745468</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>70.86573300000001</v>
+      </c>
+      <c r="N29">
+        <v>212.597199</v>
+      </c>
+      <c r="O29">
+        <v>0.5780130789036135</v>
+      </c>
+      <c r="P29">
+        <v>0.5807021443531359</v>
+      </c>
+      <c r="Q29">
+        <v>610.0618356771001</v>
+      </c>
+      <c r="R29">
+        <v>3660.371014062601</v>
+      </c>
+      <c r="S29">
+        <v>0.05263528614311998</v>
+      </c>
+      <c r="T29">
+        <v>0.03665862952390408</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>8.608700000000001</v>
+      </c>
+      <c r="H30">
+        <v>17.2174</v>
+      </c>
+      <c r="I30">
+        <v>0.09106244834971487</v>
+      </c>
+      <c r="J30">
+        <v>0.06312811116745468</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.6137786666666667</v>
+      </c>
+      <c r="N30">
+        <v>1.841336</v>
+      </c>
+      <c r="O30">
+        <v>0.005006257352694774</v>
+      </c>
+      <c r="P30">
+        <v>0.005029547749002215</v>
+      </c>
+      <c r="Q30">
+        <v>5.283836407733334</v>
+      </c>
+      <c r="R30">
+        <v>31.70301844640001</v>
+      </c>
+      <c r="S30">
+        <v>0.0004558820516051481</v>
+      </c>
+      <c r="T30">
+        <v>0.0003175058494210332</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>8.608700000000001</v>
+      </c>
+      <c r="H31">
+        <v>17.2174</v>
+      </c>
+      <c r="I31">
+        <v>0.09106244834971487</v>
+      </c>
+      <c r="J31">
+        <v>0.06312811116745468</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.3859455</v>
+      </c>
+      <c r="N31">
+        <v>2.771891</v>
+      </c>
+      <c r="O31">
+        <v>0.01130440047304115</v>
+      </c>
+      <c r="P31">
+        <v>0.007571327633592945</v>
+      </c>
+      <c r="Q31">
+        <v>11.93118902585</v>
+      </c>
+      <c r="R31">
+        <v>47.7247561034</v>
+      </c>
+      <c r="S31">
+        <v>0.001029406384200802</v>
+      </c>
+      <c r="T31">
+        <v>0.0004779636125386769</v>
       </c>
     </row>
   </sheetData>
